--- a/data/Subset1_WithDialogActs/Math AU 2 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math AU 2 transcript.xlsx_with_dialog_acts.xlsx
@@ -2625,12 +2625,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3253,12 +3253,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3925,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4303,12 +4303,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4471,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5101,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5227,12 +5227,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5983,12 +5983,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6571,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7251,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8305,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8557,12 +8557,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9607,12 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9901,12 +9901,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10405,12 +10405,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10447,12 +10447,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10615,12 +10615,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10657,12 +10657,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11035,12 +11035,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11245,12 +11245,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11665,12 +11665,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11791,12 +11791,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12001,12 +12001,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12253,12 +12253,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12379,12 +12379,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12589,12 +12589,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13181,12 +13181,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13265,12 +13265,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14147,12 +14147,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14571,12 +14571,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14697,12 +14697,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14781,12 +14781,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14907,12 +14907,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15117,12 +15117,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15247,12 +15247,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15625,12 +15625,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15877,12 +15877,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16045,12 +16045,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16171,12 +16171,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16255,12 +16255,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16297,12 +16297,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17011,12 +17011,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17989,12 +17989,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18367,12 +18367,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19257,12 +19257,12 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19509,12 +19509,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19551,12 +19551,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20983,12 +20983,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21705,12 +21705,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21915,12 +21915,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22465,12 +22465,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22889,12 +22889,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23229,12 +23229,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23607,12 +23607,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23775,12 +23775,12 @@
       <c r="H554" t="inlineStr"/>
       <c r="I554" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24237,12 +24237,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24321,12 +24321,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -24699,12 +24699,12 @@
       </c>
       <c r="I576" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24783,12 +24783,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26299,12 +26299,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26761,12 +26761,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27521,12 +27521,12 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27899,12 +27899,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27941,12 +27941,12 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -28113,12 +28113,12 @@
       <c r="H657" t="inlineStr"/>
       <c r="I657" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28491,12 +28491,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -29763,12 +29763,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30061,12 +30061,12 @@
       <c r="H703" t="inlineStr"/>
       <c r="I703" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30355,12 +30355,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30779,12 +30779,12 @@
       <c r="H720" t="inlineStr"/>
       <c r="I720" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31929,12 +31929,12 @@
       <c r="H747" t="inlineStr"/>
       <c r="I747" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32227,12 +32227,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32523,12 +32523,12 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32733,12 +32733,12 @@
       <c r="H766" t="inlineStr"/>
       <c r="I766" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33571,12 +33571,12 @@
       <c r="H786" t="inlineStr"/>
       <c r="I786" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34201,12 +34201,12 @@
       <c r="H801" t="inlineStr"/>
       <c r="I801" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -34285,12 +34285,12 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34411,12 +34411,12 @@
       <c r="H806" t="inlineStr"/>
       <c r="I806" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34579,12 +34579,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34789,12 +34789,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -34873,12 +34873,12 @@
       <c r="H817" t="inlineStr"/>
       <c r="I817" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34957,12 +34957,12 @@
       <c r="H819" t="inlineStr"/>
       <c r="I819" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -35377,12 +35377,12 @@
       <c r="H829" t="inlineStr"/>
       <c r="I829" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35587,12 +35587,12 @@
       <c r="H834" t="inlineStr"/>
       <c r="I834" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35881,12 +35881,12 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -36217,12 +36217,12 @@
       <c r="H849" t="inlineStr"/>
       <c r="I849" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36259,12 +36259,12 @@
       <c r="H850" t="inlineStr"/>
       <c r="I850" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36343,12 +36343,12 @@
       <c r="H852" t="inlineStr"/>
       <c r="I852" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36385,12 +36385,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -36637,12 +36637,12 @@
       <c r="H859" t="inlineStr"/>
       <c r="I859" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -36805,12 +36805,12 @@
       <c r="H863" t="inlineStr"/>
       <c r="I863" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -37519,12 +37519,12 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37771,12 +37771,12 @@
       <c r="H886" t="inlineStr"/>
       <c r="I886" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37939,12 +37939,12 @@
       <c r="H890" t="inlineStr"/>
       <c r="I890" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38023,12 +38023,12 @@
       <c r="H892" t="inlineStr"/>
       <c r="I892" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -38107,12 +38107,12 @@
       <c r="H894" t="inlineStr"/>
       <c r="I894" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38191,12 +38191,12 @@
       <c r="H896" t="inlineStr"/>
       <c r="I896" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38863,12 +38863,12 @@
       <c r="H912" t="inlineStr"/>
       <c r="I912" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38947,12 +38947,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38989,12 +38989,12 @@
       <c r="H915" t="inlineStr"/>
       <c r="I915" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39493,12 +39493,12 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
